--- a/data/trans_dic/P37_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que duerme las horas de sueño recomendadas para su edad</t>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,03%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,81%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>58,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>61,43%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>61,88%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>59,95%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56,43%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51,41%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,38; 78,64</t>
+          <t>47,53; 85,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,87; 65,93</t>
+          <t>22,23; 64,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,99; 69,08</t>
+          <t>24,43; 73,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,32; 66,8</t>
+          <t>16,96; 68,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,74; 75,09</t>
+          <t>43,89; 73,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,68; 79,54</t>
+          <t>60,68; 85,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,68; 69,43</t>
+          <t>46,19; 75,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,91; 67,72</t>
+          <t>37,52; 73,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,85; 73,53</t>
+          <t>51,57; 74,55</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41,76; 71,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36,04; 69,8</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 66,36</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>59,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,31%</t>
+          <t>59,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,76%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,11%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,53%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61,84%</t>
+          <t>60,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>55,27%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,28; 69,25</t>
+          <t>47,25; 67,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,05; 68,03</t>
+          <t>49,25; 67,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,89; 70,84</t>
+          <t>51,08; 68,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,29; 69,38</t>
+          <t>44,11; 64,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,69; 67,08</t>
+          <t>54,34; 69,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,61; 64,98</t>
+          <t>49,05; 64,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,48; 67,79</t>
+          <t>49,27; 64,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,76; 65,69</t>
+          <t>47,03; 62,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,42; 66,43</t>
+          <t>54,54; 66,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51,6; 63,94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52,88; 64,49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>48,01; 60,87</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,73%</t>
+          <t>67,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>66,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,05%</t>
+          <t>62,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>59,66%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>63,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>63,88%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>64,23%</t>
+          <t>70,48%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65,58%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>65,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>61,07%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,09; 76,1</t>
+          <t>59,61; 77,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,71; 74,74</t>
+          <t>59,13; 75,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,06; 75,0</t>
+          <t>57,96; 74,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,91; 74,57</t>
+          <t>53,82; 72,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,54; 66,07</t>
+          <t>64,08; 77,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,77; 67,08</t>
+          <t>55,84; 70,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,09; 72,98</t>
+          <t>57,9; 72,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>58,94; 68,53</t>
+          <t>51,02; 67,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,29; 68,6</t>
+          <t>64,48; 75,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>60,1; 71,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>60,55; 71,57</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54,8; 67,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>62,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,67; 70,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,5; 67,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,47; 69,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,26; 67,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,79; 65,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,13; 65,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,77; 67,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,18; 65,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,61; 65,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60,29%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>61,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56,09%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>65,78%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62,08%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>61,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>61,06%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>56,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56,27; 69,69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>53,48; 66,63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51,98; 67,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>46,12; 62,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60,56; 70,37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>57,18; 66,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>56,23; 66,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50,56; 62,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>60,68; 68,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56,8; 65,22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>55,92; 64,89</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>51,16; 61,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,03%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>84035</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47815</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>58232</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>77695</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>79988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>79137</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>72861</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>123643</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>164023</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>126953</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>131093</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>201338</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>61256; 109670</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23445; 67588</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27888; 84370</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30128; 121683</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59770; 99442</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>64518; 91218</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54576; 89561</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>80288; 157211</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>136679; 197609</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88436; 150494</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>83731; 162141</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>122531; 259873</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>241962</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>216925</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>230911</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>288270</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>279379</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>210279</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>207112</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>268270</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>521341</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>427204</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>438023</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>556539</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>193298; 276106</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>181904; 249272</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>196723; 264197</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>227941; 331592</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>243349; 311134</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>180670; 236200</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>178894; 233046</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>230556; 304134</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>467358; 569506</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>380662; 471685</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>395633; 482522</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>483391; 612903</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>229833</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>190545</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>183556</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>221604</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>304573</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>217312</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>212417</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>233456</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>534406</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>407858</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>395973</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>455061</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>198427; 258241</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>165795; 212586</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>159614; 206251</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>190120; 254571</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>272515; 330900</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>190724; 241545</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>188014; 235124</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>199952; 264516</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>488885; 575114</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>373817; 442398</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>363337; 429482</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>408347; 500183</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>555830</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>455286</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>472698</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>587569</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>663940</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>506730</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>492390</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>625370</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1219770</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>962015</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>965089</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1212938</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>490010; 606911</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>403841; 503206</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>402645; 520063</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>483141; 659887</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>611273; 710299</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>466735; 545034</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>453169; 532924</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>554146; 683850</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1140894; 1291516</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>892605; 1024904</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>883831; 1025641</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1096662; 1309869</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
